--- a/SuperSocketLite_CodeFlow.xlsx
+++ b/SuperSocketLite_CodeFlow.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27333" windowHeight="16478" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27333" windowHeight="16478" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Send" sheetId="1" r:id="rId1"/>
     <sheet name="TrySend" sheetId="2" r:id="rId2"/>
-    <sheet name="Send 설정" sheetId="3" r:id="rId3"/>
+    <sheet name="sendingQUeuePool" sheetId="3" r:id="rId3"/>
+    <sheet name="ClearIdleSession" sheetId="4" r:id="rId4"/>
+    <sheet name="temp" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1654,6 +1656,553 @@
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
             <a:t>큐를 반환하지 않고 사용만 하고 있다면 다른 세션에 영향을 미친다</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>595223</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>77634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>624859</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>158640</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="그룹 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="595223" y="3648970"/>
+          <a:ext cx="7620881" cy="874636"/>
+          <a:chOff x="552090" y="1043796"/>
+          <a:chExt cx="7620881" cy="874636"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="그림 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="552090" y="1052423"/>
+            <a:ext cx="7620881" cy="866009"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="TextBox 2"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6521569" y="1043796"/>
+            <a:ext cx="1164566" cy="215660"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AppServer.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>172528</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>69009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>448574</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69009</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="172528" y="69009"/>
+          <a:ext cx="5106838" cy="595223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>옵션에서 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>enable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>로 한 경우</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>세션 중에서 특정 시간 동안 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>redv, send</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>가 없는 세션을 찾아서 접속을 종료 시킨다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276046</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>146646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>338580</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146338</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="그룹 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="276046" y="940276"/>
+          <a:ext cx="2822987" cy="2380583"/>
+          <a:chOff x="431321" y="319177"/>
+          <a:chExt cx="2822987" cy="2380583"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="그림 4"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="483079" y="560717"/>
+            <a:ext cx="2771229" cy="2139043"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="431321" y="319177"/>
+            <a:ext cx="1164566" cy="215660"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AppServer.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>646982</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514769</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47565</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="그룹 10"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1337095" y="4787658"/>
+          <a:ext cx="8149146" cy="5577099"/>
+          <a:chOff x="1337095" y="4451230"/>
+          <a:chExt cx="8149146" cy="5577099"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="그림 8"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1337095" y="4451230"/>
+            <a:ext cx="8149146" cy="5577099"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="TextBox 9"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8177842" y="4580626"/>
+            <a:ext cx="1164566" cy="215660"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>AppServer.cs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552091</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>181154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>603849</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4692770" y="5538158"/>
+          <a:ext cx="3502324" cy="612476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>세션 컬렉션에서 배열로 복사</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이유</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>세션 컬렉션 원본에 접근하지 않게 하기 위해</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>612476</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>103517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>396816</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>120770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612476" y="1095555"/>
+          <a:ext cx="1164566" cy="215660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>SocketSession.cs</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1943,7 +2492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="L135" sqref="L135"/>
     </sheetView>
   </sheetViews>
@@ -1969,4 +2518,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>